--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,103 +473,503 @@
           <t>HQ_Score_Protection</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>unacceptable_1_indiv_habitat_attributes</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>unacceptable_and_at_risk_1_3_indiv_habitat_attributes</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Entiat River Potato 05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>39</v>
+      </c>
+      <c r="U2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>36</v>
+      </c>
+      <c r="U3">
+        <v>0.8</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>42</v>
-      </c>
-      <c r="U2">
-        <v>0.9333333333333334</v>
-      </c>
-      <c r="V2">
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="W2">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Flow- Scour</t>
-        </is>
+      <c r="T4">
+        <v>38</v>
+      </c>
+      <c r="U4">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>36</v>
+      </c>
+      <c r="U6">
+        <v>0.8</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>36</v>
+      </c>
+      <c r="U7">
+        <v>0.8</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,17 +477,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -509,22 +509,22 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -533,25 +533,22 @@
         <v>5</v>
       </c>
       <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U2">
-        <v>0.8666666666666667</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -560,17 +557,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -604,37 +601,37 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -643,17 +640,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -672,52 +669,52 @@
         </is>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U4">
-        <v>0.8444444444444444</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -726,17 +723,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -770,37 +767,37 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="U5">
-        <v>0.8888888888888888</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -809,7 +806,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -853,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -865,13 +862,13 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -892,17 +889,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -921,28 +918,28 @@
         </is>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -951,13 +948,13 @@
         <v>5</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>36</v>
@@ -969,6 +966,338 @@
         <v>3</v>
       </c>
       <c r="W7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>34</v>
+      </c>
+      <c r="U8">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>33</v>
+      </c>
+      <c r="U9">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>35</v>
+      </c>
+      <c r="U10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>35</v>
+      </c>
+      <c r="U11">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,22 +1055,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Spromberg Canyon 01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1080,17 +1080,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1099,37 +1099,37 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U9">
-        <v>0.7333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1138,7 +1138,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1185,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1194,34 +1194,34 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U10">
-        <v>0.7777777777777778</v>
+        <v>0.9777777777777778</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1231,73 +1231,239 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>38</v>
+      </c>
+      <c r="U11">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Middle Twisp River</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>35</v>
       </c>
-      <c r="U11">
+      <c r="U13">
         <v>0.7777777777777778</v>
       </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
     </row>
